--- a/projects/excel/read files and write data to database/archives/employee_registration.xlsx
+++ b/projects/excel/read files and write data to database/archives/employee_registration.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9e0d6736cb383cdc/4 - Github/Tabelas para testes/Tabelas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9e0d6736cb383cdc/Archives/2 - Github/Repositories/python/projects/excel/read files and write data to database/archives/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{34417E6B-12E2-4F41-912F-6FC34088C94B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{AED97218-28A1-4E80-9D27-FC3B5C9849FB}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{34417E6B-12E2-4F41-912F-6FC34088C94B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{120EA27B-5D07-4743-A980-3F1B999E27B6}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20640" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="registro_funcionarios" sheetId="1" r:id="rId1"/>
+    <sheet name="employee_registration" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">registro_funcionarios!$A$1:$K$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">employee_registration!$A$1:$K$31</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -753,24 +753,24 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="41.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="17.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="41.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -808,7 +808,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
@@ -846,7 +846,7 @@
         <v>43819</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -884,7 +884,7 @@
         <v>43819</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
@@ -922,7 +922,7 @@
         <v>43819</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
@@ -960,7 +960,7 @@
         <v>43819</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>11</v>
       </c>
@@ -998,7 +998,7 @@
         <v>43819</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
@@ -1036,7 +1036,7 @@
         <v>43819</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>13</v>
       </c>
@@ -1074,7 +1074,7 @@
         <v>43819</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>14</v>
       </c>
@@ -1112,7 +1112,7 @@
         <v>43819</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>15</v>
       </c>
@@ -1150,7 +1150,7 @@
         <v>43819</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>16</v>
       </c>
@@ -1188,7 +1188,7 @@
         <v>43819</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>17</v>
       </c>
@@ -1226,7 +1226,7 @@
         <v>43819</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>18</v>
       </c>
@@ -1264,7 +1264,7 @@
         <v>43819</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>19</v>
       </c>
@@ -1302,7 +1302,7 @@
         <v>43819</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>20</v>
       </c>
@@ -1340,7 +1340,7 @@
         <v>43819</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>21</v>
       </c>
@@ -1378,7 +1378,7 @@
         <v>43819</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>22</v>
       </c>
@@ -1416,7 +1416,7 @@
         <v>43819</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>23</v>
       </c>
@@ -1454,7 +1454,7 @@
         <v>43819</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>24</v>
       </c>
@@ -1492,7 +1492,7 @@
         <v>43819</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>25</v>
       </c>
@@ -1530,7 +1530,7 @@
         <v>43819</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>26</v>
       </c>
@@ -1568,7 +1568,7 @@
         <v>43819</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>27</v>
       </c>
@@ -1606,7 +1606,7 @@
         <v>43819</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>28</v>
       </c>
@@ -1644,7 +1644,7 @@
         <v>43819</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>29</v>
       </c>
@@ -1682,7 +1682,7 @@
         <v>43819</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>30</v>
       </c>
@@ -1720,7 +1720,7 @@
         <v>43819</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>31</v>
       </c>
@@ -1758,7 +1758,7 @@
         <v>43819</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>32</v>
       </c>
@@ -1796,7 +1796,7 @@
         <v>43819</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>33</v>
       </c>
@@ -1834,7 +1834,7 @@
         <v>43819</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>34</v>
       </c>
@@ -1872,7 +1872,7 @@
         <v>43819</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>35</v>
       </c>
@@ -1910,7 +1910,7 @@
         <v>43819</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>44</v>
       </c>
